--- a/data/trans_orig/P1802_2016_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1802_2016_2023-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>85277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69243</v>
+        <v>69817</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102860</v>
+        <v>103912</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1263744802051347</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.102613322800184</v>
+        <v>0.103463324847575</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.152430417882984</v>
+        <v>0.1539892078588606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -763,19 +763,19 @@
         <v>116382</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98662</v>
+        <v>96812</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138987</v>
+        <v>135840</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1729721644310262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1466355329273166</v>
+        <v>0.1438858768393579</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2065676788860451</v>
+        <v>0.2018910411137945</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -784,19 +784,19 @@
         <v>201660</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>174799</v>
+        <v>176391</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230226</v>
+        <v>230166</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1496394192662664</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1297074713451434</v>
+        <v>0.1308887111499063</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1708365561454359</v>
+        <v>0.1707917204002544</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>589523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>571940</v>
+        <v>570888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>605557</v>
+        <v>604983</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8736255197948654</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8475695821170159</v>
+        <v>0.8460107921411394</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.897386677199816</v>
+        <v>0.896536675152425</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>553</v>
@@ -834,19 +834,19 @@
         <v>556457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>533852</v>
+        <v>536999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>574177</v>
+        <v>576027</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8270278355689739</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7934323211139549</v>
+        <v>0.7981089588862056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8533644670726833</v>
+        <v>0.8561141231606422</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1122</v>
@@ -855,19 +855,19 @@
         <v>1145979</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1117413</v>
+        <v>1117473</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1172840</v>
+        <v>1171248</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8503605807337336</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8291634438545642</v>
+        <v>0.8292082795997455</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8702925286548566</v>
+        <v>0.8691112888500933</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>165284</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>143384</v>
+        <v>141660</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>191828</v>
+        <v>193344</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1616579369753358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.140238437040634</v>
+        <v>0.1385526253592831</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1876199119995231</v>
+        <v>0.1891020269537983</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -980,19 +980,19 @@
         <v>214744</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>190174</v>
+        <v>188166</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>245661</v>
+        <v>244011</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2059081848324032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1823488134910189</v>
+        <v>0.1804233321438923</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2355529696094648</v>
+        <v>0.2339708458293359</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>350</v>
@@ -1001,19 +1001,19 @@
         <v>380028</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>345524</v>
+        <v>345640</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>419412</v>
+        <v>418445</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1840024756913586</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1672960726749247</v>
+        <v>0.1673523725217865</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2030714717862672</v>
+        <v>0.2026030677740673</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>857147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>830603</v>
+        <v>829087</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>879047</v>
+        <v>880771</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8383420630246642</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8123800880004777</v>
+        <v>0.8108979730462023</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.859761562959366</v>
+        <v>0.8614473746407173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>778</v>
@@ -1051,19 +1051,19 @@
         <v>828169</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>797252</v>
+        <v>798902</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>852739</v>
+        <v>854747</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7940918151675969</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7644470303905353</v>
+        <v>0.7660291541706641</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8176511865089811</v>
+        <v>0.8195766678561078</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1578</v>
@@ -1072,19 +1072,19 @@
         <v>1685316</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1645932</v>
+        <v>1646899</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1719820</v>
+        <v>1719704</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8159975243086415</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7969285282137326</v>
+        <v>0.7973969322259328</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8327039273250753</v>
+        <v>0.8326476274782136</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>105669</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86590</v>
+        <v>86743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124584</v>
+        <v>123810</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1391197405222371</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1140017394045621</v>
+        <v>0.1142024231089017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1640225361321414</v>
+        <v>0.1630043642004598</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>138</v>
@@ -1197,19 +1197,19 @@
         <v>149604</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129507</v>
+        <v>129206</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>175034</v>
+        <v>175353</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1905756083652703</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1649742261134776</v>
+        <v>0.164591407832848</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2229700422297272</v>
+        <v>0.223376773084952</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>237</v>
@@ -1218,19 +1218,19 @@
         <v>255273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227625</v>
+        <v>224656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>286894</v>
+        <v>285827</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1652717412743428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1473715496158134</v>
+        <v>0.1454494439763499</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1857445368816989</v>
+        <v>0.1850533410402743</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>653883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>634968</v>
+        <v>635742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>672962</v>
+        <v>672809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8608802594777629</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8359774638678588</v>
+        <v>0.8369956357995402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8859982605954378</v>
+        <v>0.8857975768910983</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>598</v>
@@ -1268,19 +1268,19 @@
         <v>635407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>609977</v>
+        <v>609658</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>655504</v>
+        <v>655805</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8094243916347298</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7770299577702729</v>
+        <v>0.7766232269150479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8350257738865225</v>
+        <v>0.835408592167152</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1195</v>
@@ -1289,19 +1289,19 @@
         <v>1289290</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1257669</v>
+        <v>1258736</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1316938</v>
+        <v>1319907</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8347282587256573</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8142554631183011</v>
+        <v>0.8149466589597256</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8526284503841866</v>
+        <v>0.8545505560236499</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>131376</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111135</v>
+        <v>112739</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153054</v>
+        <v>153751</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1401243582869598</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1185358534087662</v>
+        <v>0.1202459705876045</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1632460629141126</v>
+        <v>0.163989516377819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -1414,19 +1414,19 @@
         <v>188531</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>162490</v>
+        <v>164760</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>215723</v>
+        <v>215741</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1806230082390639</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.15567493260542</v>
+        <v>0.1578498870574876</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2066751317967376</v>
+        <v>0.2066921776374282</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>294</v>
@@ -1435,19 +1435,19 @@
         <v>319906</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>287244</v>
+        <v>286536</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>357311</v>
+        <v>356960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1614591683654858</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.144973973567114</v>
+        <v>0.144616646640971</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1803374231147273</v>
+        <v>0.1801603810518942</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>806191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>784513</v>
+        <v>783816</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>826432</v>
+        <v>824828</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8598756417130402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8367539370858874</v>
+        <v>0.8360104836221809</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8814641465912336</v>
+        <v>0.8797540294123953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>792</v>
@@ -1485,19 +1485,19 @@
         <v>855248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>828056</v>
+        <v>828038</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>881289</v>
+        <v>879019</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8193769917609361</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7933248682032624</v>
+        <v>0.7933078223625724</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.84432506739458</v>
+        <v>0.8421501129425126</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1597</v>
@@ -1506,19 +1506,19 @@
         <v>1661440</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1624035</v>
+        <v>1624386</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1694102</v>
+        <v>1694810</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8385408316345142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8196625768852727</v>
+        <v>0.8198396189481058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8550260264328859</v>
+        <v>0.855383353359029</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>487606</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>447650</v>
+        <v>445730</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>532255</v>
+        <v>532083</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1436523148843321</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1318809573924168</v>
+        <v>0.1313151455894135</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1568060713198146</v>
+        <v>0.1567554798850076</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>617</v>
@@ -1631,19 +1631,19 @@
         <v>669261</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>620604</v>
+        <v>615537</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>716779</v>
+        <v>711598</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1888145754281552</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1750872298406281</v>
+        <v>0.1736576912159333</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2022206029643789</v>
+        <v>0.2007589133787732</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1077</v>
@@ -1652,19 +1652,19 @@
         <v>1156867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1093150</v>
+        <v>1092592</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1225377</v>
+        <v>1221610</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1667222115442197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1575395509821492</v>
+        <v>0.1574591936320326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1765954239699091</v>
+        <v>0.1760526180127824</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2906744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2862095</v>
+        <v>2862267</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2946700</v>
+        <v>2948620</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8563476851156679</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8431939286801854</v>
+        <v>0.8432445201149925</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8681190426075832</v>
+        <v>0.8686848544105865</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2721</v>
@@ -1702,19 +1702,19 @@
         <v>2875281</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2827763</v>
+        <v>2832944</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2923938</v>
+        <v>2929005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8111854245718447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7977793970356212</v>
+        <v>0.7992410866212268</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8249127701593719</v>
+        <v>0.8263423087840667</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5492</v>
@@ -1723,19 +1723,19 @@
         <v>5782025</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5713515</v>
+        <v>5717282</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5845742</v>
+        <v>5846300</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8332777884557803</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8234045760300909</v>
+        <v>0.8239473819872175</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8424604490178508</v>
+        <v>0.8425408063679675</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>94982</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78100</v>
+        <v>78934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113514</v>
+        <v>114268</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1375129890368405</v>
+        <v>0.1375129890368404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1130725288971467</v>
+        <v>0.1142789401747365</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1643443929055099</v>
+        <v>0.1654360731338317</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>218</v>
@@ -2088,19 +2088,19 @@
         <v>122864</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107006</v>
+        <v>107099</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142374</v>
+        <v>140527</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1675923333074319</v>
+        <v>0.167592333307432</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1459612294026096</v>
+        <v>0.1460879649918512</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1942049700968176</v>
+        <v>0.191685769199846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>332</v>
@@ -2109,19 +2109,19 @@
         <v>217846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196791</v>
+        <v>194003</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>247379</v>
+        <v>246315</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1530005656336505</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1382133892091731</v>
+        <v>0.1362549277578096</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1737427535517284</v>
+        <v>0.1729956417766114</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>595728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>577196</v>
+        <v>576442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>612610</v>
+        <v>611776</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8624870109631596</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.83565560709449</v>
+        <v>0.8345639268661681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8869274711028533</v>
+        <v>0.8857210598252634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1021</v>
@@ -2159,19 +2159,19 @@
         <v>610249</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>590739</v>
+        <v>592586</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>626107</v>
+        <v>626014</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.832407666692568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8057950299031824</v>
+        <v>0.808314230800154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8540387705973904</v>
+        <v>0.8539120350081488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1637</v>
@@ -2180,19 +2180,19 @@
         <v>1205977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1176444</v>
+        <v>1177508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1227032</v>
+        <v>1229820</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8469994343663495</v>
+        <v>0.8469994343663496</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8262572464482716</v>
+        <v>0.8270043582233886</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.861786610790827</v>
+        <v>0.8637450722421903</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>133916</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112608</v>
+        <v>113100</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158962</v>
+        <v>159346</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.127670953819847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1073568401714907</v>
+        <v>0.1078254190918674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.151548695105212</v>
+        <v>0.1519149619533682</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>245</v>
@@ -2305,19 +2305,19 @@
         <v>158424</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>139496</v>
+        <v>141295</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>177958</v>
+        <v>179948</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1479438750627999</v>
+        <v>0.1479438750627998</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1302682251273087</v>
+        <v>0.1319483026816548</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1661857612132662</v>
+        <v>0.168044127968228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>379</v>
@@ -2326,19 +2326,19 @@
         <v>292340</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>264880</v>
+        <v>263487</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>322270</v>
+        <v>322488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1379122379704134</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1249579129389426</v>
+        <v>0.1243004641812457</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1520315880728906</v>
+        <v>0.1521343436594162</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>915001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>889955</v>
+        <v>889571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>936309</v>
+        <v>935817</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8723290461801529</v>
+        <v>0.8723290461801531</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8484513048947879</v>
+        <v>0.8480850380466323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8926431598285094</v>
+        <v>0.8921745809081325</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1271</v>
@@ -2376,19 +2376,19 @@
         <v>912414</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>892880</v>
+        <v>890890</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>931342</v>
+        <v>929543</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8520561249372002</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8338142387867337</v>
+        <v>0.8319558720317719</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8697317748726912</v>
+        <v>0.8680516973183452</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2101</v>
@@ -2397,19 +2397,19 @@
         <v>1827415</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1797485</v>
+        <v>1797267</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1854875</v>
+        <v>1856268</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8620877620295867</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8479684119271094</v>
+        <v>0.8478656563405831</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8750420870610571</v>
+        <v>0.8756995358187544</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>108529</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88235</v>
+        <v>89438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128290</v>
+        <v>131102</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1352888190592506</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1099912532841829</v>
+        <v>0.1114905234821833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1599229811059672</v>
+        <v>0.1634286733450092</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>229</v>
@@ -2522,19 +2522,19 @@
         <v>161801</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>142850</v>
+        <v>142958</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>181600</v>
+        <v>185213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.199846924878395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1764399744113594</v>
+        <v>0.1765732559134565</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2243019571416708</v>
+        <v>0.2287650590806761</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>333</v>
@@ -2543,19 +2543,19 @@
         <v>270329</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>239811</v>
+        <v>243010</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>298906</v>
+        <v>301039</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1677165514829634</v>
+        <v>0.1677165514829635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1487822661424975</v>
+        <v>0.1507671015364226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1854462439301687</v>
+        <v>0.1867695370597289</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>693670</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>673909</v>
+        <v>671097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>713964</v>
+        <v>712761</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8647111809407494</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8400770188940326</v>
+        <v>0.8365713266549908</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8900087467158169</v>
+        <v>0.8885094765178169</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>814</v>
@@ -2593,19 +2593,19 @@
         <v>647822</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>628023</v>
+        <v>624410</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>666773</v>
+        <v>666665</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8001530751216049</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7756980428583289</v>
+        <v>0.771234940919324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8235600255886406</v>
+        <v>0.8234267440865434</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1385</v>
@@ -2614,19 +2614,19 @@
         <v>1341493</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1312916</v>
+        <v>1310783</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1372011</v>
+        <v>1368812</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8322834485170364</v>
+        <v>0.8322834485170365</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.814553756069831</v>
+        <v>0.8132304629402712</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8512177338575025</v>
+        <v>0.8492328984635774</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>196607</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>172824</v>
+        <v>172508</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>225051</v>
+        <v>225252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1987407130166903</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1746994155046189</v>
+        <v>0.1743798931384728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2274933809489878</v>
+        <v>0.2276957586304079</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>388</v>
@@ -2739,19 +2739,19 @@
         <v>256644</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>232649</v>
+        <v>234293</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>278586</v>
+        <v>278959</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2294830568125797</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2080277072955609</v>
+        <v>0.2094972751316074</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2491027801708524</v>
+        <v>0.2494364012040668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>598</v>
@@ -2760,19 +2760,19 @@
         <v>453251</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>418503</v>
+        <v>417794</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>488797</v>
+        <v>489015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2150533627448608</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1985663411772212</v>
+        <v>0.1982298701316326</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2319188322932842</v>
+        <v>0.2320220421872242</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>792659</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>764215</v>
+        <v>764014</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>816442</v>
+        <v>816758</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8012592869833097</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7725066190510123</v>
+        <v>0.7723042413695922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8253005844953812</v>
+        <v>0.8256201068615272</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1173</v>
@@ -2810,19 +2810,19 @@
         <v>861713</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>839771</v>
+        <v>839398</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>885708</v>
+        <v>884064</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7705169431874205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7508972198291479</v>
+        <v>0.7505635987959333</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7919722927044393</v>
+        <v>0.7905027248683927</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1968</v>
@@ -2831,19 +2831,19 @@
         <v>1654371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1618825</v>
+        <v>1618607</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1689119</v>
+        <v>1689828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7849466372551392</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7680811677067158</v>
+        <v>0.7679779578127759</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8014336588227788</v>
+        <v>0.8017701298683674</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>534034</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>485273</v>
+        <v>491282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>575699</v>
+        <v>584539</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1512375779975038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1374287181363199</v>
+        <v>0.1391304719102425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.163037165228758</v>
+        <v>0.1655407508346795</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1080</v>
@@ -2956,19 +2956,19 @@
         <v>699733</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>664031</v>
+        <v>656126</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>743419</v>
+        <v>739887</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1874988219737451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.17793233463147</v>
+        <v>0.1758141308863386</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1992049447352268</v>
+        <v>0.1982585426646914</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1642</v>
@@ -2977,19 +2977,19 @@
         <v>1233766</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1175559</v>
+        <v>1168773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1296057</v>
+        <v>1297105</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1698695543420787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1618553402134795</v>
+        <v>0.1609210049243604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1784459698150788</v>
+        <v>0.1785903025396678</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2997057</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2955392</v>
+        <v>2946552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3045818</v>
+        <v>3039809</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8487624220024961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8369628347712421</v>
+        <v>0.8344592491653199</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.86257128186368</v>
+        <v>0.8608695280897574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4279</v>
@@ -3027,19 +3027,19 @@
         <v>3032198</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2988512</v>
+        <v>2992044</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3067900</v>
+        <v>3075805</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8125011780262549</v>
+        <v>0.812501178026255</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8007950552647733</v>
+        <v>0.8017414573353085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8220676653685302</v>
+        <v>0.8241858691136615</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7091</v>
@@ -3048,19 +3048,19 @@
         <v>6029256</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5966965</v>
+        <v>5965917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6087463</v>
+        <v>6094249</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8301304456579213</v>
+        <v>0.8301304456579214</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8215540301849211</v>
+        <v>0.8214096974603321</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8381446597865205</v>
+        <v>0.8390789950756395</v>
       </c>
     </row>
     <row r="18">
